--- a/Resumen_Todos_Escenarios.xlsx
+++ b/Resumen_Todos_Escenarios.xlsx
@@ -497,28 +497,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.367</v>
+        <v>13.71966666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>60.79333333333333</v>
+        <v>62.162</v>
       </c>
       <c r="D2" t="n">
-        <v>55.94333333333334</v>
+        <v>56.99033333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>954.3266666666666</v>
+        <v>955.0353333333334</v>
       </c>
       <c r="F2" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="G2" t="n">
-        <v>17.66666666666667</v>
+        <v>18.4</v>
       </c>
       <c r="H2" t="n">
-        <v>26.61266666666667</v>
+        <v>27.764</v>
       </c>
       <c r="I2" t="n">
-        <v>648.7333333333333</v>
+        <v>655.1666666666666</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -536,28 +536,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.897</v>
+        <v>18.80033333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>61.27766666666666</v>
+        <v>60.376</v>
       </c>
       <c r="D3" t="n">
-        <v>60.609</v>
+        <v>60.26533333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>980.5846666666667</v>
+        <v>977.8526666666668</v>
       </c>
       <c r="F3" t="n">
-        <v>69.09999999999999</v>
+        <v>69.13333333333334</v>
       </c>
       <c r="G3" t="n">
-        <v>24.96666666666667</v>
+        <v>25.53333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>36.17866666666666</v>
+        <v>36.97133333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>596.7666666666667</v>
+        <v>594.0666666666667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.58966666666667</v>
+        <v>16.82833333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>54.26666666666667</v>
+        <v>56.83466666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>41.463</v>
+        <v>41.73866666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>661.1180000000001</v>
+        <v>659.303</v>
       </c>
       <c r="F4" t="n">
-        <v>35.83333333333334</v>
+        <v>35.46666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>8.129333333333333</v>
+        <v>7.991</v>
       </c>
       <c r="I4" t="n">
-        <v>417.2</v>
+        <v>421.1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -614,28 +614,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.57833333333333</v>
+        <v>15.39733333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>63.14633333333334</v>
+        <v>62.73733333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>61.943</v>
+        <v>61.22166666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>978.3446666666666</v>
+        <v>978.6906666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>69.36666666666666</v>
+        <v>69.43333333333334</v>
       </c>
       <c r="G5" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="H5" t="n">
-        <v>32.60433333333334</v>
+        <v>32.149</v>
       </c>
       <c r="I5" t="n">
-        <v>660.2666666666667</v>
+        <v>652.3666666666667</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -653,28 +653,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.61633333333333</v>
+        <v>11.34566666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>55.53366666666667</v>
+        <v>54.989</v>
       </c>
       <c r="D6" t="n">
-        <v>52.73433333333333</v>
+        <v>52.67833333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>956.6283333333333</v>
+        <v>956.3896666666666</v>
       </c>
       <c r="F6" t="n">
-        <v>66.7</v>
+        <v>66.43333333333334</v>
       </c>
       <c r="G6" t="n">
-        <v>12.7</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>19.07366666666667</v>
+        <v>18.326</v>
       </c>
       <c r="I6" t="n">
-        <v>601.8666666666667</v>
+        <v>600.4666666666667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.68166666666666</v>
+        <v>16.617</v>
       </c>
       <c r="C7" t="n">
-        <v>56.93066666666667</v>
+        <v>55.584</v>
       </c>
       <c r="D7" t="n">
-        <v>42.19566666666666</v>
+        <v>41.97366666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>659.347</v>
+        <v>658.5886666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>35.73333333333333</v>
+        <v>35.7</v>
       </c>
       <c r="G7" t="n">
-        <v>2.966666666666667</v>
+        <v>3.433333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>8.329000000000001</v>
+        <v>9.631666666666666</v>
       </c>
       <c r="I7" t="n">
-        <v>428.3666666666667</v>
+        <v>421.9333333333333</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -731,28 +731,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.783</v>
+        <v>13.86533333333333</v>
       </c>
       <c r="C8" t="n">
-        <v>63.59266666666667</v>
+        <v>58.43066666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>60.14933333333333</v>
+        <v>60.95866666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>870.0663333333333</v>
+        <v>871.258</v>
       </c>
       <c r="F8" t="n">
-        <v>62.33333333333334</v>
+        <v>62.4</v>
       </c>
       <c r="G8" t="n">
-        <v>17.56666666666667</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>28.20066666666667</v>
+        <v>29.944</v>
       </c>
       <c r="I8" t="n">
-        <v>645.7</v>
+        <v>649.8666666666667</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -770,28 +770,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.72</v>
+        <v>25.89166666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>103.0673333333333</v>
+        <v>107.995</v>
       </c>
       <c r="D9" t="n">
-        <v>60.87333333333333</v>
+        <v>60.84933333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>857.0300000000001</v>
+        <v>859.116</v>
       </c>
       <c r="F9" t="n">
-        <v>50.53333333333333</v>
+        <v>50.36666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>17.76666666666667</v>
+        <v>17.93333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>35.21233333333333</v>
+        <v>35.713</v>
       </c>
       <c r="I9" t="n">
-        <v>593.9</v>
+        <v>584.2666666666667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -809,28 +809,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.23733333333333</v>
+        <v>19.56133333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>62.62833333333333</v>
+        <v>66.67533333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>59.87733333333333</v>
+        <v>60.77066666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>655.0773333333333</v>
+        <v>654.569</v>
       </c>
       <c r="F10" t="n">
-        <v>41.8</v>
+        <v>41.63333333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>11.63333333333333</v>
+        <v>12.43333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>27.949</v>
+        <v>29.87466666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>414.6333333333333</v>
+        <v>415.9</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -848,28 +848,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.869</v>
+        <v>13.689</v>
       </c>
       <c r="C11" t="n">
-        <v>55.86966666666667</v>
+        <v>59.43233333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>60.225</v>
+        <v>59.96066666666666</v>
       </c>
       <c r="E11" t="n">
-        <v>871.2223333333333</v>
+        <v>872.6273333333334</v>
       </c>
       <c r="F11" t="n">
-        <v>62.83333333333334</v>
+        <v>63.26666666666667</v>
       </c>
       <c r="G11" t="n">
-        <v>18.56666666666667</v>
+        <v>19.1</v>
       </c>
       <c r="H11" t="n">
-        <v>29.59733333333333</v>
+        <v>30.24866666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>648.7666666666667</v>
+        <v>644.2333333333333</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -887,28 +887,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.81966666666667</v>
+        <v>25.30266666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>113.4306666666667</v>
+        <v>105.9873333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>57.23799999999999</v>
+        <v>57.873</v>
       </c>
       <c r="E12" t="n">
-        <v>907.7723333333332</v>
+        <v>910.3163333333334</v>
       </c>
       <c r="F12" t="n">
-        <v>52.2</v>
+        <v>52.56666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>16.63333333333333</v>
+        <v>17.43333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>31.90966666666667</v>
+        <v>33.22666666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>588.1666666666666</v>
+        <v>598.4666666666667</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -926,28 +926,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.81233333333333</v>
+        <v>18.79</v>
       </c>
       <c r="C13" t="n">
-        <v>63.89866666666667</v>
+        <v>64.87266666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>61.296</v>
+        <v>60.729</v>
       </c>
       <c r="E13" t="n">
-        <v>654.1666666666666</v>
+        <v>656.5409999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>42.1</v>
+        <v>41.53333333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>12.8</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>30.38033333333333</v>
+        <v>29.27233333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>418</v>
+        <v>417.2333333333333</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
